--- a/dados_ibge_cidade.xlsx
+++ b/dados_ibge_cidade.xlsx
@@ -1,46 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samuel.perroni\Downloads\3 - Exercício IBGE 1\3 - Exercício IBGE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marti_ezke8vn\Downloads\cp_rpa_caio_gustavo_joao_leonardo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55F018F4-79D1-4452-B64D-389FA33681B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0800CA2E-25E6-43D2-A8F7-EB08388D7CA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{28B6AF94-7C28-4272-8876-8D3588CAED95}"/>
+    <workbookView xWindow="1500" yWindow="96" windowWidth="17280" windowHeight="8964" xr2:uid="{28B6AF94-7C28-4272-8876-8D3588CAED95}"/>
   </bookViews>
   <sheets>
     <sheet name="Municípios" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>Pequena, Média ou Grande ?</t>
-  </si>
-  <si>
-    <t>Municipio</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="50">
   <si>
     <t>UF</t>
   </si>
@@ -67,13 +52,136 @@
   </si>
   <si>
     <t>Área da unidade territorial</t>
+  </si>
+  <si>
+    <t>Municípios</t>
+  </si>
+  <si>
+    <t>Alta Floresta D'Oeste</t>
+  </si>
+  <si>
+    <t>RO</t>
+  </si>
+  <si>
+    <t>1100015</t>
+  </si>
+  <si>
+    <t>7.067,127</t>
+  </si>
+  <si>
+    <t>1,8</t>
+  </si>
+  <si>
+    <t>3.051</t>
+  </si>
+  <si>
+    <t>32.619,88</t>
+  </si>
+  <si>
+    <t>5,43</t>
+  </si>
+  <si>
+    <t>6,46</t>
+  </si>
+  <si>
+    <t>Ariquemes</t>
+  </si>
+  <si>
+    <t>1100023</t>
+  </si>
+  <si>
+    <t>4.426,571</t>
+  </si>
+  <si>
+    <t>2,1</t>
+  </si>
+  <si>
+    <t>13.078</t>
+  </si>
+  <si>
+    <t>28.878,27</t>
+  </si>
+  <si>
+    <t>21,26</t>
+  </si>
+  <si>
+    <t>33,26</t>
+  </si>
+  <si>
+    <t>Cabixi</t>
+  </si>
+  <si>
+    <t>1100031</t>
+  </si>
+  <si>
+    <t>1.314,352</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>729</t>
+  </si>
+  <si>
+    <t>47.051,83</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>2,24</t>
+  </si>
+  <si>
+    <t>Cacoal</t>
+  </si>
+  <si>
+    <t>1100049</t>
+  </si>
+  <si>
+    <t>3.793,000</t>
+  </si>
+  <si>
+    <t>1,9</t>
+  </si>
+  <si>
+    <t>10.969</t>
+  </si>
+  <si>
+    <t>32.313,26</t>
+  </si>
+  <si>
+    <t>9,61</t>
+  </si>
+  <si>
+    <t>28,04</t>
+  </si>
+  <si>
+    <t>Cerejeiras</t>
+  </si>
+  <si>
+    <t>1100056</t>
+  </si>
+  <si>
+    <t>2.783,300</t>
+  </si>
+  <si>
+    <t>2.171</t>
+  </si>
+  <si>
+    <t>46.185,81</t>
+  </si>
+  <si>
+    <t>3,68</t>
+  </si>
+  <si>
+    <t>6,31</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,18 +196,12 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -127,9 +229,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -138,7 +239,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="12">
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
@@ -167,20 +268,17 @@
       <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
     </dxf>
     <dxf>
       <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
       </border>
     </dxf>
     <dxf>
@@ -231,11 +329,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8DAEB8A9-0D71-4B3C-81D6-2ABF79B12F65}" name="Tabela4" displayName="Tabela4" ref="A1:K2" insertRow="1" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="10" tableBorderDxfId="11">
-  <autoFilter ref="A1:K2" xr:uid="{8DAEB8A9-0D71-4B3C-81D6-2ABF79B12F65}"/>
-  <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{467208B2-E4DF-4D1C-B754-D7EAEA0E6BA3}" name="Pequena, Média ou Grande ?" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{8278DB2E-051B-403F-9CDB-3775558B5782}" name="Municipio" dataDxfId="8"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{8DAEB8A9-0D71-4B3C-81D6-2ABF79B12F65}" name="Tabela4" displayName="Tabela4" ref="A1:J6" totalsRowShown="0" headerRowDxfId="11" headerRowBorderDxfId="10" tableBorderDxfId="9">
+  <autoFilter ref="A1:J6" xr:uid="{8DAEB8A9-0D71-4B3C-81D6-2ABF79B12F65}"/>
+  <tableColumns count="10">
+    <tableColumn id="2" xr3:uid="{8278DB2E-051B-403F-9CDB-3775558B5782}" name="Municípios" dataDxfId="8"/>
     <tableColumn id="3" xr3:uid="{D8C8759D-70EB-4609-874B-97C464F3D509}" name="UF" dataDxfId="7"/>
     <tableColumn id="4" xr3:uid="{7B2049E5-0FC1-4776-887A-6B50B71B13F7}" name="Cod. Municipio" dataDxfId="6"/>
     <tableColumn id="5" xr3:uid="{6383A1FD-1A21-4DC6-B875-A577977315F5}" name="População no último censo" dataDxfId="5"/>
@@ -251,7 +348,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -547,178 +644,230 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{174E5EC6-57C0-4B4A-9117-7632484C994F}">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="3" width="28.7109375" customWidth="1"/>
-    <col min="4" max="4" width="25" customWidth="1"/>
-    <col min="5" max="5" width="48.28515625" customWidth="1"/>
-    <col min="6" max="6" width="57.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="42.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" customWidth="1"/>
-    <col min="9" max="9" width="23.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.42578125" customWidth="1"/>
-    <col min="11" max="11" width="34.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="28.6640625" customWidth="1"/>
+    <col min="3" max="3" width="25" customWidth="1"/>
+    <col min="4" max="4" width="48.33203125" customWidth="1"/>
+    <col min="5" max="5" width="57.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.6640625" customWidth="1"/>
+    <col min="8" max="8" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="23.44140625" customWidth="1"/>
+    <col min="10" max="10" width="34.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="J6" s="1" t="s">
+        <v>49</v>
+      </c>
     </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
     </row>
-    <row r="7" spans="1:13">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-    </row>
-    <row r="10" spans="1:13">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -730,12 +879,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="7e3d2bc7-1e8b-4412-b9e4-2111d76bd9c9" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7bc641a7-997f-4048-a412-d593c6319208">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -968,24 +1119,48 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="7e3d2bc7-1e8b-4412-b9e4-2111d76bd9c9" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="7bc641a7-997f-4048-a412-d593c6319208">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D25C0718-6F6F-4264-BAB0-F03BD7013163}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83A287C5-F434-4695-83F0-EED2E79F2819}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="7e3d2bc7-1e8b-4412-b9e4-2111d76bd9c9"/>
+    <ds:schemaRef ds:uri="7bc641a7-997f-4048-a412-d593c6319208"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{342E861F-38C4-4FCE-AB34-3E1BC43BC858}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{342E861F-38C4-4FCE-AB34-3E1BC43BC858}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="7bc641a7-997f-4048-a412-d593c6319208"/>
+    <ds:schemaRef ds:uri="7e3d2bc7-1e8b-4412-b9e4-2111d76bd9c9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{83A287C5-F434-4695-83F0-EED2E79F2819}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D25C0718-6F6F-4264-BAB0-F03BD7013163}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>